--- a/results/mp/logistic/corona/confidence/168/0.35/avg_0.004_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/168/0.35/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="47">
   <si>
     <t>anchor score</t>
   </si>
@@ -55,9 +55,6 @@
     <t>no</t>
   </si>
   <si>
-    <t>stop</t>
-  </si>
-  <si>
     <t>the</t>
   </si>
   <si>
@@ -76,45 +73,42 @@
     <t>great</t>
   </si>
   <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>won</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
     <t>special</t>
   </si>
   <si>
+    <t>support</t>
+  </si>
+  <si>
     <t>heroes</t>
   </si>
   <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>thanks</t>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>confidence</t>
   </si>
   <si>
     <t>safe</t>
   </si>
   <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>won</t>
-  </si>
-  <si>
     <t>fresh</t>
   </si>
   <si>
-    <t>save</t>
-  </si>
-  <si>
     <t>better</t>
   </si>
   <si>
@@ -130,18 +124,18 @@
     <t>join</t>
   </si>
   <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
     <t>hope</t>
   </si>
   <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
     <t>share</t>
   </si>
   <si>
@@ -151,19 +145,16 @@
     <t>increase</t>
   </si>
   <si>
-    <t>you</t>
-  </si>
-  <si>
-    <t>for</t>
+    <t>protect</t>
   </si>
   <si>
     <t>and</t>
   </si>
   <si>
+    <t>to</t>
+  </si>
+  <si>
     <t>.</t>
-  </si>
-  <si>
-    <t>to</t>
   </si>
 </sst>
 </file>
@@ -521,7 +512,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q36"/>
+  <dimension ref="A1:Q35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -529,10 +520,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -590,13 +581,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.7465753424657534</v>
+        <v>0.7671232876712328</v>
       </c>
       <c r="C3">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="D3">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -608,19 +599,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K3">
-        <v>0.9152542372881356</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="L3">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M3">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -632,7 +623,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -640,13 +631,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.4497354497354497</v>
+        <v>0.455026455026455</v>
       </c>
       <c r="C4">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D4">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -658,10 +649,10 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K4">
         <v>0.9130434782608695</v>
@@ -690,13 +681,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.3565891472868217</v>
+        <v>0.3662790697674418</v>
       </c>
       <c r="C5">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="D5">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -708,19 +699,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K5">
-        <v>0.8833333333333333</v>
+        <v>0.9083333333333333</v>
       </c>
       <c r="L5">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="M5">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -732,7 +723,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -740,13 +731,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.2080536912751678</v>
+        <v>0.1946308724832215</v>
       </c>
       <c r="C6">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D6">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -758,19 +749,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K6">
-        <v>0.8660714285714286</v>
+        <v>0.875</v>
       </c>
       <c r="L6">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M6">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -782,7 +773,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -790,13 +781,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.1277777777777778</v>
+        <v>0.1638888888888889</v>
       </c>
       <c r="C7">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="D7">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -808,19 +799,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>314</v>
+        <v>301</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K7">
-        <v>0.8611111111111112</v>
+        <v>0.825065274151436</v>
       </c>
       <c r="L7">
-        <v>31</v>
+        <v>316</v>
       </c>
       <c r="M7">
-        <v>31</v>
+        <v>316</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -832,7 +823,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>5</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -840,113 +831,89 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.1031746031746032</v>
+        <v>0.005458089668615985</v>
       </c>
       <c r="C8">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D8">
-        <v>26</v>
+        <v>63</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.4399999999999999</v>
       </c>
       <c r="G8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8">
-        <v>226</v>
+        <v>5102</v>
       </c>
       <c r="J8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K8">
+        <v>0.8103448275862069</v>
+      </c>
+      <c r="L8">
+        <v>47</v>
+      </c>
+      <c r="M8">
+        <v>47</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="J9" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K8">
-        <v>0.8297872340425532</v>
-      </c>
-      <c r="L8">
-        <v>39</v>
-      </c>
-      <c r="M8">
-        <v>39</v>
-      </c>
-      <c r="N8">
-        <v>1</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q8">
+      <c r="K9">
+        <v>0.7948717948717948</v>
+      </c>
+      <c r="L9">
+        <v>31</v>
+      </c>
+      <c r="M9">
+        <v>31</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q9">
         <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
-      <c r="A9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9">
-        <v>0.005056398288603656</v>
-      </c>
-      <c r="C9">
-        <v>26</v>
-      </c>
-      <c r="D9">
-        <v>49</v>
-      </c>
-      <c r="E9">
-        <v>0.47</v>
-      </c>
-      <c r="F9">
-        <v>0.53</v>
-      </c>
-      <c r="G9" t="b">
-        <v>1</v>
-      </c>
-      <c r="H9">
-        <v>5116</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K9">
-        <v>0.8198433420365535</v>
-      </c>
-      <c r="L9">
-        <v>314</v>
-      </c>
-      <c r="M9">
-        <v>314</v>
-      </c>
-      <c r="N9">
-        <v>1</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="J10" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K10">
-        <v>0.8048780487804879</v>
+        <v>0.7926829268292683</v>
       </c>
       <c r="L10">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M10">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -958,21 +925,21 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="J11" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K11">
-        <v>0.8028169014084507</v>
+        <v>0.7875</v>
       </c>
       <c r="L11">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="M11">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -984,21 +951,21 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="J12" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K12">
-        <v>0.8018867924528302</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L12">
-        <v>85</v>
+        <v>28</v>
       </c>
       <c r="M12">
-        <v>85</v>
+        <v>28</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1010,21 +977,21 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>21</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K13">
-        <v>0.7931034482758621</v>
+        <v>0.7735849056603774</v>
       </c>
       <c r="L13">
-        <v>46</v>
+        <v>82</v>
       </c>
       <c r="M13">
-        <v>46</v>
+        <v>82</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1036,21 +1003,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K14">
-        <v>0.7890625</v>
+        <v>0.7659574468085106</v>
       </c>
       <c r="L14">
-        <v>101</v>
+        <v>36</v>
       </c>
       <c r="M14">
-        <v>101</v>
+        <v>36</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1062,21 +1029,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>27</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K15">
-        <v>0.7777777777777778</v>
+        <v>0.765625</v>
       </c>
       <c r="L15">
-        <v>28</v>
+        <v>98</v>
       </c>
       <c r="M15">
-        <v>28</v>
+        <v>98</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1088,21 +1055,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>8</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K16">
-        <v>0.775</v>
+        <v>0.75</v>
       </c>
       <c r="L16">
-        <v>124</v>
+        <v>27</v>
       </c>
       <c r="M16">
-        <v>124</v>
+        <v>27</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1114,21 +1081,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>36</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K17">
-        <v>0.7692307692307693</v>
+        <v>0.7394366197183099</v>
       </c>
       <c r="L17">
-        <v>30</v>
+        <v>105</v>
       </c>
       <c r="M17">
-        <v>30</v>
+        <v>105</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1140,21 +1107,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>9</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K18">
-        <v>0.75</v>
+        <v>0.7291666666666666</v>
       </c>
       <c r="L18">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M18">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1166,21 +1133,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K19">
-        <v>0.7142857142857143</v>
+        <v>0.6825396825396826</v>
       </c>
       <c r="L19">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="M19">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1192,21 +1159,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K20">
-        <v>0.6825396825396826</v>
+        <v>0.675</v>
       </c>
       <c r="L20">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="M20">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1218,21 +1185,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K21">
-        <v>0.65</v>
+        <v>0.66</v>
       </c>
       <c r="L21">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="M21">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1244,21 +1211,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K22">
-        <v>0.64</v>
+        <v>0.6264705882352941</v>
       </c>
       <c r="L22">
-        <v>32</v>
+        <v>213</v>
       </c>
       <c r="M22">
-        <v>32</v>
+        <v>213</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1270,21 +1237,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>18</v>
+        <v>127</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K23">
-        <v>0.6294117647058823</v>
+        <v>0.6046511627906976</v>
       </c>
       <c r="L23">
-        <v>214</v>
+        <v>26</v>
       </c>
       <c r="M23">
-        <v>214</v>
+        <v>26</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1296,21 +1263,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>126</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K24">
-        <v>0.6046511627906976</v>
+        <v>0.5957446808510638</v>
       </c>
       <c r="L24">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="M24">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1322,21 +1289,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>17</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K25">
-        <v>0.6</v>
+        <v>0.5857740585774058</v>
       </c>
       <c r="L25">
-        <v>39</v>
+        <v>140</v>
       </c>
       <c r="M25">
-        <v>39</v>
+        <v>140</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1348,21 +1315,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>26</v>
+        <v>99</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K26">
-        <v>0.576271186440678</v>
+        <v>0.5694915254237288</v>
       </c>
       <c r="L26">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="M26">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1374,21 +1341,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K27">
-        <v>0.5690376569037657</v>
+        <v>0.5692307692307692</v>
       </c>
       <c r="L27">
-        <v>136</v>
+        <v>37</v>
       </c>
       <c r="M27">
-        <v>136</v>
+        <v>37</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1400,21 +1367,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>103</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K28">
-        <v>0.5531914893617021</v>
+        <v>0.5285714285714286</v>
       </c>
       <c r="L28">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="M28">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1426,21 +1393,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>42</v>
+        <v>33</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K29">
-        <v>0.5285714285714286</v>
+        <v>0.4382022471910113</v>
       </c>
       <c r="L29">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M29">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1452,21 +1419,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>33</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K30">
-        <v>0.4831460674157304</v>
+        <v>0.3717948717948718</v>
       </c>
       <c r="L30">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="M30">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1478,21 +1445,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K31">
-        <v>0.3717948717948718</v>
+        <v>0.3424657534246575</v>
       </c>
       <c r="L31">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="M31">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1504,137 +1471,111 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K32">
-        <v>0.03341687552213868</v>
+        <v>0.01276276276276276</v>
       </c>
       <c r="L32">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="M32">
         <v>43</v>
       </c>
       <c r="N32">
-        <v>0.93</v>
+        <v>0.79</v>
       </c>
       <c r="O32">
-        <v>0.06999999999999995</v>
+        <v>0.21</v>
       </c>
       <c r="P32" t="b">
         <v>1</v>
       </c>
       <c r="Q32">
-        <v>1157</v>
+        <v>2630</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="K33">
-        <v>0.01700251889168766</v>
+        <v>0.006813315164492894</v>
       </c>
       <c r="L33">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="M33">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="N33">
-        <v>0.82</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="O33">
-        <v>0.18</v>
+        <v>0.4399999999999999</v>
       </c>
       <c r="P33" t="b">
         <v>1</v>
       </c>
       <c r="Q33">
-        <v>1561</v>
+        <v>5102</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K34">
+        <v>0.006728538283062645</v>
+      </c>
+      <c r="L34">
+        <v>29</v>
+      </c>
+      <c r="M34">
         <v>47</v>
       </c>
-      <c r="K34">
-        <v>0.01239203905369884</v>
-      </c>
-      <c r="L34">
-        <v>33</v>
-      </c>
-      <c r="M34">
-        <v>43</v>
-      </c>
       <c r="N34">
-        <v>0.77</v>
+        <v>0.62</v>
       </c>
       <c r="O34">
-        <v>0.23</v>
+        <v>0.38</v>
       </c>
       <c r="P34" t="b">
         <v>1</v>
       </c>
       <c r="Q34">
-        <v>2630</v>
+        <v>4281</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K35">
-        <v>0.007035175879396985</v>
+        <v>0.005218787635487756</v>
       </c>
       <c r="L35">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="M35">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="N35">
-        <v>0.62</v>
+        <v>0.65</v>
       </c>
       <c r="O35">
-        <v>0.38</v>
+        <v>0.35</v>
       </c>
       <c r="P35" t="b">
         <v>1</v>
       </c>
       <c r="Q35">
-        <v>4940</v>
-      </c>
-    </row>
-    <row r="36" spans="10:17">
-      <c r="J36" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="K36">
-        <v>0.006965405154399814</v>
-      </c>
-      <c r="L36">
-        <v>30</v>
-      </c>
-      <c r="M36">
-        <v>51</v>
-      </c>
-      <c r="N36">
-        <v>0.59</v>
-      </c>
-      <c r="O36">
-        <v>0.41</v>
-      </c>
-      <c r="P36" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q36">
-        <v>4277</v>
+        <v>4956</v>
       </c>
     </row>
   </sheetData>
